--- a/数据库/数据库表结构设计.xlsx
+++ b/数据库/数据库表结构设计.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12675"/>
+    <workbookView windowWidth="28800" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户表（USER）" sheetId="2" r:id="rId1"/>
+    <sheet name="小组表（GROUP）" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>表名</t>
   </si>
@@ -143,6 +144,15 @@
   </si>
   <si>
     <t>更新时间</t>
+  </si>
+  <si>
+    <t>小组表（GROUP）</t>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+  </si>
+  <si>
+    <t>小组名称</t>
   </si>
 </sst>
 </file>
@@ -152,8 +162,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -161,6 +171,104 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,13 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -188,55 +289,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,66 +317,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -335,187 +345,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,8 +557,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,11 +626,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,202 +651,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,9 +815,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1134,8 +1141,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1320,20 +1327,20 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
@@ -1384,36 +1391,235 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/数据库/数据库表结构设计.xlsx
+++ b/数据库/数据库表结构设计.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12675" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户表（USER）" sheetId="2" r:id="rId1"/>
     <sheet name="小组表（GROUP）" sheetId="3" r:id="rId2"/>
+    <sheet name="抽奖日志（LOTTERY_LOG）" sheetId="4" r:id="rId3"/>
+    <sheet name="站会项目记录表（STANDUP_ITEM_RECORD）" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
   <si>
     <t>表名</t>
   </si>
@@ -98,6 +100,15 @@
     <t>varchar(30)</t>
   </si>
   <si>
+    <t>USER_ROLE</t>
+  </si>
+  <si>
+    <t>用户角色</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
     <t>LAST_LOGIN_TIME</t>
   </si>
   <si>
@@ -153,6 +164,75 @@
   </si>
   <si>
     <t>小组名称</t>
+  </si>
+  <si>
+    <t>抽奖日志（LOTTERY_LOG）</t>
+  </si>
+  <si>
+    <t>LOTTERY_STYLE</t>
+  </si>
+  <si>
+    <t>抽奖方式</t>
+  </si>
+  <si>
+    <t>LOTTERY_USER_ID</t>
+  </si>
+  <si>
+    <t>抽奖人编号</t>
+  </si>
+  <si>
+    <t>WINNER_USER_ID</t>
+  </si>
+  <si>
+    <t>中奖人编号</t>
+  </si>
+  <si>
+    <t>站会项目记录表（STANDUP_ITEM_RECORD）</t>
+  </si>
+  <si>
+    <t>PROPOSER_USER_ID</t>
+  </si>
+  <si>
+    <t>提出人编号</t>
+  </si>
+  <si>
+    <t>PRINCIPAL_USER_ID</t>
+  </si>
+  <si>
+    <t>负责人编号</t>
+  </si>
+  <si>
+    <t>ITEM_STYLE</t>
+  </si>
+  <si>
+    <t>项目类型</t>
+  </si>
+  <si>
+    <t>ITEM_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>项目说明</t>
+  </si>
+  <si>
+    <t>MEASURE</t>
+  </si>
+  <si>
+    <t>措施</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>REMARK</t>
   </si>
 </sst>
 </file>
@@ -160,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -188,6 +268,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -195,26 +283,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,23 +322,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,45 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +390,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -351,13 +431,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,55 +575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,103 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,21 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -587,16 +652,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -626,16 +691,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -656,142 +736,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1311,13 +1391,13 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="4"/>
@@ -1327,20 +1407,20 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
@@ -1363,10 +1443,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1376,10 +1456,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
@@ -1391,36 +1471,52 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1436,8 +1532,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1452,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1527,10 +1623,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -1543,13 +1639,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1559,13 +1655,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1575,13 +1671,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1591,13 +1687,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1607,19 +1703,516 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.3166666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.325" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/数据库/数据库表结构设计.xlsx
+++ b/数据库/数据库表结构设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12675" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="用户表（USER）" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
   <si>
     <t>表名</t>
   </si>
@@ -49,130 +49,130 @@
     <t>备注</t>
   </si>
   <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+  </si>
+  <si>
+    <t>小组编号</t>
+  </si>
+  <si>
+    <t>USER_PASSWORD</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>USER_PHONE</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>USER_EMAIL</t>
+  </si>
+  <si>
+    <t>用户邮箱</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>USER_ROLE</t>
+  </si>
+  <si>
+    <t>用户角色（0-admin、1-general）</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
+    <t>LAST_LOGIN_TIME</t>
+  </si>
+  <si>
+    <t>最后登录时间</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>LAST_CODE</t>
+  </si>
+  <si>
+    <t>最新验证码</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>EXT1</t>
+  </si>
+  <si>
+    <t>备用字段</t>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+  </si>
+  <si>
+    <t>EXT2</t>
+  </si>
+  <si>
+    <t>EXT3</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>CREATION_TIME</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>小组表（GROUP）</t>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+  </si>
+  <si>
+    <t>小组名称</t>
+  </si>
+  <si>
+    <t>抽奖日志（LOTTERY_LOG）</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>无意义主键</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
-    <t>用户编号</t>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-  </si>
-  <si>
-    <t>小组编号</t>
-  </si>
-  <si>
-    <t>USER_PASSWORD</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>USER_PHONE</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>USER_EMAIL</t>
-  </si>
-  <si>
-    <t>用户邮箱</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>USER_ROLE</t>
-  </si>
-  <si>
-    <t>用户角色</t>
-  </si>
-  <si>
-    <t>char(1)</t>
-  </si>
-  <si>
-    <t>LAST_LOGIN_TIME</t>
-  </si>
-  <si>
-    <t>最后登录时间</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>LAST_CODE</t>
-  </si>
-  <si>
-    <t>最新验证码</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>EXT1</t>
-  </si>
-  <si>
-    <t>备用字段</t>
-  </si>
-  <si>
-    <t>varchar(60)</t>
-  </si>
-  <si>
-    <t>EXT2</t>
-  </si>
-  <si>
-    <t>EXT3</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>CREATION_TIME</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>小组表（GROUP）</t>
-  </si>
-  <si>
-    <t>GROUP_NAME</t>
-  </si>
-  <si>
-    <t>小组名称</t>
-  </si>
-  <si>
-    <t>抽奖日志（LOTTERY_LOG）</t>
-  </si>
-  <si>
     <t>LOTTERY_STYLE</t>
   </si>
   <si>
-    <t>抽奖方式</t>
+    <t>抽奖方式(0-turntable)</t>
   </si>
   <si>
     <t>LOTTERY_USER_ID</t>
@@ -205,7 +205,7 @@
     <t>ITEM_STYLE</t>
   </si>
   <si>
-    <t>项目类型</t>
+    <t>项目类型(0-风险项、1-待改进项、2-跟进项)</t>
   </si>
   <si>
     <t>ITEM_DESCRIPTION</t>
@@ -223,13 +223,13 @@
     <t>STATE</t>
   </si>
   <si>
-    <t>状态</t>
+    <t>状态(0-待处理、1-活动中、2-已关闭)</t>
   </si>
   <si>
     <t>PRIORITY</t>
   </si>
   <si>
-    <t>优先级</t>
+    <t>优先级(0-低、1-中、2-高)</t>
   </si>
   <si>
     <t>REMARK</t>
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -254,22 +254,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -277,7 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +292,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -298,11 +307,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,7 +332,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,32 +362,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,25 +391,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -425,187 +425,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,24 +630,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,16 +659,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,17 +688,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,153 +722,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,10 +1219,305 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1237,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1273,11 +1568,11 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -1295,11 +1590,11 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
@@ -1312,340 +1607,29 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1655,13 +1639,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1670,20 +1654,20 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
@@ -1693,29 +1677,13 @@
         <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1738,7 +1706,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1747,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1784,10 +1752,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -1812,7 +1780,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1854,13 +1822,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1870,13 +1838,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1886,13 +1854,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1902,13 +1870,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1930,14 +1898,14 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="10.5416666666667" customWidth="1"/>
     <col min="5" max="5" width="10.3166666666667" customWidth="1"/>
@@ -1986,10 +1954,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -2046,7 +2014,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2062,7 +2030,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2078,7 +2046,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2094,7 +2062,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2110,7 +2078,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2126,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2136,13 +2104,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2152,13 +2120,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2168,13 +2136,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2184,13 +2152,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2200,13 +2168,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
